--- a/dataTest/Data_testLogin.xlsx
+++ b/dataTest/Data_testLogin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA CODE\selenium_testcase\dataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109559A9-4482-4D1F-8504-40FC79CE2968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAEA7AF-A5B4-43F9-9D96-A2058A1C327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -45,17 +45,17 @@
     <t>Cong2002</t>
   </si>
   <si>
-    <t>cong2002</t>
-  </si>
-  <si>
-    <t>Cong</t>
+    <t>Cong200</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +70,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -122,9 +128,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +425,7 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,10 +454,14 @@
         <v>20010886</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -458,10 +471,14 @@
         <v>20010886</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -471,23 +488,42 @@
         <v>20010886</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20010886</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTest/Data_testLogin.xlsx
+++ b/dataTest/Data_testLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAEA7AF-A5B4-43F9-9D96-A2058A1C327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5C2D0-FFAC-41C8-8AB0-6D2202246460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>No</t>
   </si>
@@ -36,19 +36,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Desired Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message </t>
-  </si>
-  <si>
     <t>Cong2002</t>
   </si>
   <si>
     <t>Cong200</t>
-  </si>
-  <si>
-    <t>Đăng xuất</t>
   </si>
 </sst>
 </file>
@@ -414,19 +405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -439,12 +433,6 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -454,13 +442,7 @@
         <v>20010886</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,13 +453,7 @@
         <v>20010886</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,42 +464,20 @@
         <v>20010886</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
       <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTest/Data_testLogin.xlsx
+++ b/dataTest/Data_testLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5C2D0-FFAC-41C8-8AB0-6D2202246460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A03AD1-F22F-483B-9FC9-2CB659FE79B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Cong200</t>
+  </si>
+  <si>
+    <t>ValueCheck</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,11 +115,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -125,6 +145,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,14 +434,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
@@ -433,6 +459,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -444,6 +473,9 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -455,6 +487,9 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -465,6 +500,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/dataTest/Data_testLogin.xlsx
+++ b/dataTest/Data_testLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A03AD1-F22F-483B-9FC9-2CB659FE79B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B94079-F2B1-4F60-9F2D-0C51AA707524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>anhdung2107</t>
+  </si>
+  <si>
+    <t>anhdung21072002</t>
+  </si>
+  <si>
+    <t>thanh123</t>
+  </si>
+  <si>
+    <t>011605</t>
+  </si>
+  <si>
+    <t>05022002</t>
   </si>
 </sst>
 </file>
@@ -92,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,23 +130,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,18 +144,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,17 +433,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
@@ -450,72 +452,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>20010886</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>20010886</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>20010886</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="2">
+        <v>19010029</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20010891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20010891</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20010891</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>19010029</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20010939</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20010939</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2007201</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20010927</v>
+      </c>
+      <c r="C11" s="8">
+        <v>13082002</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTest/Data_testLogin.xlsx
+++ b/dataTest/Data_testLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B94079-F2B1-4F60-9F2D-0C51AA707524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D146969-0FD3-49B6-90DB-AFEB4F78B596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -51,19 +51,22 @@
     <t>fail</t>
   </si>
   <si>
-    <t>anhdung2107</t>
-  </si>
-  <si>
     <t>anhdung21072002</t>
   </si>
   <si>
     <t>thanh123</t>
   </si>
   <si>
-    <t>011605</t>
-  </si>
-  <si>
-    <t>05022002</t>
+    <t>lecong1</t>
+  </si>
+  <si>
+    <t>thanh1</t>
+  </si>
+  <si>
+    <t>anhdung210702</t>
+  </si>
+  <si>
+    <t>thuc123</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,8 +503,8 @@
       <c r="B4" s="2">
         <v>19010029</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -515,7 +518,7 @@
         <v>20010891</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -530,7 +533,7 @@
         <v>20010891</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -545,7 +548,7 @@
         <v>20010891</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -559,7 +562,7 @@
         <v>19010029</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -572,8 +575,8 @@
       <c r="B9" s="6">
         <v>20010939</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -600,8 +603,8 @@
       <c r="B11" s="6">
         <v>20010927</v>
       </c>
-      <c r="C11" s="8">
-        <v>13082002</v>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
